--- a/dados/desp-gnd-fun.xlsx
+++ b/dados/desp-gnd-fun.xlsx
@@ -1,26 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
-  <workbookPr defaultThemeVersion="202300"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tiago/Documents/GitHub/orcamento/dados/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB4C2C4-221D-1B4F-A84C-64FAA21947D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <bookViews>
-    <workbookView xWindow="3800" yWindow="3200" windowWidth="17140" windowHeight="14740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="11715" windowHeight="9120"/>
   </bookViews>
   <sheets>
-    <sheet name="Sankey Despesas por Função e GN" sheetId="1" r:id="rId1"/>
+    <sheet name="Sankey Despesas por Função e GN" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="96">
   <si>
     <t>Sankey Despesas por Função e GND</t>
   </si>
@@ -28,7 +19,7 @@
     <t>Filtro do relatório:</t>
   </si>
   <si>
-    <t>({Item Informação} = 9:DOTACAO INICIAL, 8:PROJETO INICIAL DA LOA - FIXACAO DESPESA) E ({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "JAN/2025") E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE)</t>
+    <t>({Item Informação} = 9:DOTACAO INICIAL) E ({Mês Lançamento} ({Sigla Completa (MMM/AAAA)}) = "ABR/2025") E ({Órgão UGE - Orçam. Fiscal S/N} = PERTENCE)</t>
   </si>
   <si>
     <t>Páginas:</t>
@@ -37,287 +28,287 @@
     <t>Métrica: Saldo - R$ (Item Informação)</t>
   </si>
   <si>
-    <t>Item Informação: 8:PROJETO INICIAL DA LOA - FIXACAO DESPESA</t>
-  </si>
-  <si>
-    <t>Mês Lançamento: JAN/2025</t>
-  </si>
-  <si>
-    <t>Sankey - Estrutura de Despesas - proxy Mansueto_v3</t>
-  </si>
-  <si>
-    <t>Grupo Despesa Código Grupo</t>
-  </si>
-  <si>
-    <t>Grupo Despesa Nome</t>
-  </si>
-  <si>
-    <t>Função Governo Código</t>
-  </si>
-  <si>
-    <t>Função Governo Nome</t>
-  </si>
-  <si>
-    <t>Saldo - R$ (Item Informação)</t>
-  </si>
-  <si>
-    <t>Pessoal Ativo</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>PESSOAL E ENCARGOS SOCIAIS</t>
-  </si>
-  <si>
-    <t>04</t>
-  </si>
-  <si>
-    <t>ADMINISTRACAO</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>AGRICULTURA</t>
-  </si>
-  <si>
-    <t>08</t>
-  </si>
-  <si>
-    <t>ASSISTENCIA SOCIAL</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>CIENCIA E TECNOLOGIA</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>COMERCIO E SERVICOS</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>COMUNICACOES</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>CULTURA</t>
-  </si>
-  <si>
-    <t>05</t>
-  </si>
-  <si>
-    <t>DEFESA NACIONAL</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>DIREITOS DA CIDADANIA</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>EDUCACAO</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>ENCARGOS ESPECIAIS</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>ENERGIA</t>
-  </si>
-  <si>
-    <t>03</t>
-  </si>
-  <si>
-    <t>ESSENCIAL A JUSTICA</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>GESTAO AMBIENTAL</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>INDUSTRIA</t>
-  </si>
-  <si>
-    <t>02</t>
-  </si>
-  <si>
-    <t>JUDICIARIA</t>
-  </si>
-  <si>
-    <t>01</t>
-  </si>
-  <si>
-    <t>LEGISLATIVA</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>ORGANIZACAO AGRARIA</t>
-  </si>
-  <si>
-    <t>09</t>
-  </si>
-  <si>
-    <t>PREVIDENCIA SOCIAL</t>
-  </si>
-  <si>
-    <t>07</t>
-  </si>
-  <si>
-    <t>RELACOES EXTERIORES</t>
-  </si>
-  <si>
-    <t>99</t>
-  </si>
-  <si>
-    <t>RESERVA DE CONTINGENCIA</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>SAUDE</t>
-  </si>
-  <si>
-    <t>06</t>
-  </si>
-  <si>
-    <t>SEGURANCA PUBLICA</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>TRABALHO</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>TRANSPORTE</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>URBANISMO</t>
-  </si>
-  <si>
-    <t>Pessoal Inativo</t>
-  </si>
-  <si>
-    <t>Custeio de Saúde</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>OUTRAS DESPESAS CORRENTES</t>
-  </si>
-  <si>
-    <t>Custeio de Educação</t>
-  </si>
-  <si>
-    <t>Custeio Social</t>
-  </si>
-  <si>
-    <t>Custeio Administrativo</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>DESPORTO E LAZER</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>HABITACAO</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>SANEAMENTO</t>
-  </si>
-  <si>
-    <t>Outras transferências</t>
-  </si>
-  <si>
-    <t>Benefícios Previdenciários RGPS</t>
-  </si>
-  <si>
-    <t>Investimentos</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>INVERSOES FINANCEIRAS</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>INVESTIMENTOS</t>
-  </si>
-  <si>
-    <t>Juros</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>JUROS E ENCARGOS DA DIVIDA</t>
-  </si>
-  <si>
-    <t>Amortização da Dívida</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>AMORTIZACAO/REFINANCIAMENTO DA DIVIDA</t>
-  </si>
-  <si>
-    <t>Reserva de Contingência</t>
-  </si>
-  <si>
-    <t>9</t>
+    <t>Item Informação: 9:DOTACAO INICIAL</t>
+  </si>
+  <si>
+    <t>Mês Lançamento: ABR/2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sankey - Estrutura de Despesas - proxy Mansueto_v3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo Despesa Código Grupo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grupo Despesa Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função Governo Código</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Função Governo Nome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saldo - R$ (Item Informação)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pessoal Ativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PESSOAL E ENCARGOS SOCIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ADMINISTRACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AGRICULTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ASSISTENCIA SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CIENCIA E TECNOLOGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">23</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMERCIO E SERVICOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">24</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMUNICACOES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CULTURA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">05</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEFESA NACIONAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DIREITOS DA CIDADANIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EDUCACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENCARGOS ESPECIAIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ENERGIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ESSENCIAL A JUSTICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GESTAO AMBIENTAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INDUSTRIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">02</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUDICIARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LEGISLATIVA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ORGANIZACAO AGRARIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREVIDENCIA SOCIAL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELACOES EXTERIORES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RESERVA DE CONTINGENCIA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SAUDE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SEGURANCA PUBLICA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRABALHO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TRANSPORTE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">URBANISMO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pessoal Inativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custeio de Saúde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUTRAS DESPESAS CORRENTES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custeio de Educação</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custeio Social</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Custeio Administrativo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">27</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESPORTO E LAZER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HABITACAO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">17</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SANEAMENTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Outras transferências</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Benefícios Previdenciários RGPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investimentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVERSOES FINANCEIRAS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INVESTIMENTOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Juros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JUROS E ENCARGOS DA DIVIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amortização da Dívida</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AMORTIZACAO/REFINANCIAMENTO DA DIVIDA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reserva de Contingência</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00_);\(#,##0.00\)"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00_);(#,##0.00)"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -329,7 +320,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="none"/>
     </fill>
   </fills>
   <borders count="1">
@@ -338,415 +329,87 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="bottom" wrapText="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="0E2841"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="156082"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="E97132"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="196B24"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="A02B93"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="4EA72E"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="467886"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="96607D"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
-<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<file path=xl/worksheets/worksheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E132" sqref="E132"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="6" max="6" width="35" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" ht="10.5" customHeight="1">
       <c r="A6" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="2" t="s">
+    <row r="7" ht="10.5" customHeight="1">
+      <c r="A7" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="2" t="s">
+      <c r="B7"/>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+      <c r="F7"/>
+    </row>
+    <row r="8" ht="10.5" customHeight="1">
+      <c r="A8" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="10.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="2" t="s">
+      <c r="B8"/>
+      <c r="C8"/>
+      <c r="D8"/>
+      <c r="E8"/>
+      <c r="F8"/>
+    </row>
+    <row r="9" ht="10.5" customHeight="1">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="B9"/>
+      <c r="C9"/>
+      <c r="D9"/>
+      <c r="E9"/>
+      <c r="F9"/>
+    </row>
+    <row r="11">
       <c r="A11" t="s">
         <v>7</v>
       </c>
@@ -766,7 +429,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="12">
       <c r="A12" t="s">
         <v>13</v>
       </c>
@@ -786,7 +449,7 @@
         <v>21491816557</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="13">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -806,7 +469,7 @@
         <v>5516920407</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="14">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -826,7 +489,7 @@
         <v>123885806</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="15">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -846,7 +509,7 @@
         <v>1534307732</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="16">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -866,7 +529,7 @@
         <v>43304662</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="17">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -886,7 +549,7 @@
         <v>593238974</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="18">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -906,7 +569,7 @@
         <v>458418995</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="19">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -926,7 +589,7 @@
         <v>35231763078</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="20">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -946,7 +609,7 @@
         <v>469989566</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="21">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -966,7 +629,7 @@
         <v>64353857494</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="22">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -986,7 +649,7 @@
         <v>33423705425</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="23">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -1006,7 +669,7 @@
         <v>674549846</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="24">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -1026,7 +689,7 @@
         <v>7494364407</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -1046,7 +709,7 @@
         <v>1249491309</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="26">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -1066,7 +729,7 @@
         <v>1329862145</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="27">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -1083,10 +746,10 @@
         <v>47</v>
       </c>
       <c r="F27" s="1">
-        <v>37409653509</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+        <v>37408718561</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" t="s">
         <v>13</v>
       </c>
@@ -1106,7 +769,7 @@
         <v>7750547987</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="29">
       <c r="A29" t="s">
         <v>13</v>
       </c>
@@ -1126,7 +789,7 @@
         <v>1400127416</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="30">
       <c r="A30" t="s">
         <v>13</v>
       </c>
@@ -1143,10 +806,10 @@
         <v>53</v>
       </c>
       <c r="F30" s="1">
-        <v>5011222390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+        <v>5211222390</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -1166,7 +829,7 @@
         <v>1490950449</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="32">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -1183,10 +846,10 @@
         <v>57</v>
       </c>
       <c r="F32" s="1">
-        <v>34751003888</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
+        <v>32988487555</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -1206,7 +869,7 @@
         <v>8600299878</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="34">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -1226,7 +889,7 @@
         <v>9975174479</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="35">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -1246,7 +909,7 @@
         <v>1450438042</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="36">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -1266,7 +929,7 @@
         <v>1705747184</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="37">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -1286,7 +949,7 @@
         <v>722196572</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="38">
       <c r="A38" t="s">
         <v>68</v>
       </c>
@@ -1306,7 +969,7 @@
         <v>800790586</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="39">
       <c r="A39" t="s">
         <v>68</v>
       </c>
@@ -1326,7 +989,7 @@
         <v>33286225752</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="40">
       <c r="A40" t="s">
         <v>68</v>
       </c>
@@ -1346,7 +1009,7 @@
         <v>28300837668</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="41">
       <c r="A41" t="s">
         <v>68</v>
       </c>
@@ -1366,7 +1029,7 @@
         <v>97858238845</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="42">
       <c r="A42" t="s">
         <v>68</v>
       </c>
@@ -1386,7 +1049,7 @@
         <v>155794260</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="43">
       <c r="A43" t="s">
         <v>69</v>
       </c>
@@ -1403,10 +1066,10 @@
         <v>59</v>
       </c>
       <c r="F43" s="1">
-        <v>190217823494</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
+        <v>210144444480</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" t="s">
         <v>72</v>
       </c>
@@ -1423,10 +1086,10 @@
         <v>35</v>
       </c>
       <c r="F44" s="1">
-        <v>97366388563</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
+        <v>94347956297</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" t="s">
         <v>73</v>
       </c>
@@ -1443,10 +1106,10 @@
         <v>21</v>
       </c>
       <c r="F45" s="1">
-        <v>285334743795</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
+        <v>282319552517</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" t="s">
         <v>73</v>
       </c>
@@ -1463,10 +1126,10 @@
         <v>63</v>
       </c>
       <c r="F46" s="1">
-        <v>88459841803</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
+        <v>89080517521</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" t="s">
         <v>74</v>
       </c>
@@ -1483,10 +1146,10 @@
         <v>17</v>
       </c>
       <c r="F47" s="1">
-        <v>10897014716</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
+        <v>10688207875</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" t="s">
         <v>74</v>
       </c>
@@ -1503,10 +1166,10 @@
         <v>19</v>
       </c>
       <c r="F48" s="1">
-        <v>18183882556</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18340999318.95</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" t="s">
         <v>74</v>
       </c>
@@ -1523,10 +1186,10 @@
         <v>23</v>
       </c>
       <c r="F49" s="1">
-        <v>9956191321</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7909740958.26</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" t="s">
         <v>74</v>
       </c>
@@ -1543,10 +1206,10 @@
         <v>25</v>
       </c>
       <c r="F50" s="1">
-        <v>1822283954</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2181077353</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" t="s">
         <v>74</v>
       </c>
@@ -1563,10 +1226,10 @@
         <v>27</v>
       </c>
       <c r="F51" s="1">
-        <v>746076825</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.15">
+        <v>825756328</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" t="s">
         <v>74</v>
       </c>
@@ -1583,10 +1246,10 @@
         <v>29</v>
       </c>
       <c r="F52" s="1">
-        <v>943305362</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1227438901</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" t="s">
         <v>74</v>
       </c>
@@ -1603,10 +1266,10 @@
         <v>31</v>
       </c>
       <c r="F53" s="1">
-        <v>19048602589</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.15">
+        <v>18892790909.99</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" t="s">
         <v>74</v>
       </c>
@@ -1623,10 +1286,10 @@
         <v>76</v>
       </c>
       <c r="F54" s="1">
-        <v>320250196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.15">
+        <v>868384488</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" t="s">
         <v>74</v>
       </c>
@@ -1643,10 +1306,10 @@
         <v>33</v>
       </c>
       <c r="F55" s="1">
-        <v>1662690064</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1813326107</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" t="s">
         <v>74</v>
       </c>
@@ -1663,10 +1326,10 @@
         <v>37</v>
       </c>
       <c r="F56" s="1">
-        <v>74333163142</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
+        <v>74531259240</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" t="s">
         <v>74</v>
       </c>
@@ -1683,10 +1346,10 @@
         <v>39</v>
       </c>
       <c r="F57" s="1">
-        <v>532355625</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
+        <v>530549308.5</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" t="s">
         <v>74</v>
       </c>
@@ -1703,10 +1366,10 @@
         <v>41</v>
       </c>
       <c r="F58" s="1">
-        <v>2825660325</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2827776673</v>
+      </c>
+    </row>
+    <row r="59">
       <c r="A59" t="s">
         <v>74</v>
       </c>
@@ -1723,10 +1386,10 @@
         <v>43</v>
       </c>
       <c r="F59" s="1">
-        <v>1959455486</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1980292815</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" t="s">
         <v>74</v>
       </c>
@@ -1743,10 +1406,10 @@
         <v>78</v>
       </c>
       <c r="F60" s="1">
-        <v>16630000</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.15">
+        <v>15782591</v>
+      </c>
+    </row>
+    <row r="61">
       <c r="A61" t="s">
         <v>74</v>
       </c>
@@ -1763,10 +1426,10 @@
         <v>45</v>
       </c>
       <c r="F61" s="1">
-        <v>769514060</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.15">
+        <v>792058285.23</v>
+      </c>
+    </row>
+    <row r="62">
       <c r="A62" t="s">
         <v>74</v>
       </c>
@@ -1783,10 +1446,10 @@
         <v>47</v>
       </c>
       <c r="F62" s="1">
-        <v>11833330164</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.15">
+        <v>11828828950</v>
+      </c>
+    </row>
+    <row r="63">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -1806,7 +1469,7 @@
         <v>3552970708</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="64">
       <c r="A64" t="s">
         <v>74</v>
       </c>
@@ -1823,10 +1486,10 @@
         <v>51</v>
       </c>
       <c r="F64" s="1">
-        <v>1614542831</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1657860051</v>
+      </c>
+    </row>
+    <row r="65">
       <c r="A65" t="s">
         <v>74</v>
       </c>
@@ -1843,10 +1506,10 @@
         <v>53</v>
       </c>
       <c r="F65" s="1">
-        <v>2811744267</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2800646627</v>
+      </c>
+    </row>
+    <row r="66">
       <c r="A66" t="s">
         <v>74</v>
       </c>
@@ -1863,10 +1526,10 @@
         <v>55</v>
       </c>
       <c r="F66" s="1">
-        <v>3210512184</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.15">
+        <v>3101265312.19</v>
+      </c>
+    </row>
+    <row r="67">
       <c r="A67" t="s">
         <v>74</v>
       </c>
@@ -1883,10 +1546,10 @@
         <v>80</v>
       </c>
       <c r="F67" s="1">
-        <v>26000000</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.15">
+        <v>24722308</v>
+      </c>
+    </row>
+    <row r="68">
       <c r="A68" t="s">
         <v>74</v>
       </c>
@@ -1903,10 +1566,10 @@
         <v>61</v>
       </c>
       <c r="F68" s="1">
-        <v>3891566811</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.15">
+        <v>4133449500.96</v>
+      </c>
+    </row>
+    <row r="69">
       <c r="A69" t="s">
         <v>74</v>
       </c>
@@ -1923,10 +1586,10 @@
         <v>65</v>
       </c>
       <c r="F69" s="1">
-        <v>2493955663</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2420541516</v>
+      </c>
+    </row>
+    <row r="70">
       <c r="A70" t="s">
         <v>74</v>
       </c>
@@ -1943,10 +1606,10 @@
         <v>67</v>
       </c>
       <c r="F70" s="1">
-        <v>430976853</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.15">
+        <v>449360435</v>
+      </c>
+    </row>
+    <row r="71">
       <c r="A71" t="s">
         <v>81</v>
       </c>
@@ -1957,16 +1620,16 @@
         <v>71</v>
       </c>
       <c r="D71" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="F71" s="1">
-        <v>22764734</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.15">
+        <v>302674450</v>
+      </c>
+    </row>
+    <row r="72">
       <c r="A72" t="s">
         <v>81</v>
       </c>
@@ -1977,16 +1640,16 @@
         <v>71</v>
       </c>
       <c r="D72" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E72" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="F72" s="1">
-        <v>156390897</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.15">
+        <v>14580327.74</v>
+      </c>
+    </row>
+    <row r="73">
       <c r="A73" t="s">
         <v>81</v>
       </c>
@@ -1997,16 +1660,16 @@
         <v>71</v>
       </c>
       <c r="D73" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E73" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F73" s="1">
-        <v>551806204436</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.15">
+        <v>110001022</v>
+      </c>
+    </row>
+    <row r="74">
       <c r="A74" t="s">
         <v>81</v>
       </c>
@@ -2017,16 +1680,16 @@
         <v>71</v>
       </c>
       <c r="D74" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F74" s="1">
-        <v>18394835</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.15">
+        <v>975000</v>
+      </c>
+    </row>
+    <row r="75">
       <c r="A75" t="s">
         <v>81</v>
       </c>
@@ -2037,16 +1700,16 @@
         <v>71</v>
       </c>
       <c r="D75" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="F75" s="1">
-        <v>86823420</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7900001</v>
+      </c>
+    </row>
+    <row r="76">
       <c r="A76" t="s">
         <v>81</v>
       </c>
@@ -2057,16 +1720,16 @@
         <v>71</v>
       </c>
       <c r="D76" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F76" s="1">
-        <v>370000</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.15">
+        <v>523218902</v>
+      </c>
+    </row>
+    <row r="77">
       <c r="A77" t="s">
         <v>81</v>
       </c>
@@ -2077,16 +1740,16 @@
         <v>71</v>
       </c>
       <c r="D77" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E77" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F77" s="1">
-        <v>256509000</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.15">
+        <v>150374740</v>
+      </c>
+    </row>
+    <row r="78">
       <c r="A78" t="s">
         <v>81</v>
       </c>
@@ -2097,16 +1760,16 @@
         <v>71</v>
       </c>
       <c r="D78" t="s">
-        <v>54</v>
+        <v>36</v>
       </c>
       <c r="E78" t="s">
-        <v>55</v>
+        <v>37</v>
       </c>
       <c r="F78" s="1">
-        <v>1600000</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.15">
+        <v>560600035547</v>
+      </c>
+    </row>
+    <row r="79">
       <c r="A79" t="s">
         <v>81</v>
       </c>
@@ -2117,16 +1780,16 @@
         <v>71</v>
       </c>
       <c r="D79" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="E79" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="F79" s="1">
-        <v>1038243189</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.15">
+        <v>14554370.5</v>
+      </c>
+    </row>
+    <row r="80">
       <c r="A80" t="s">
         <v>81</v>
       </c>
@@ -2137,196 +1800,196 @@
         <v>71</v>
       </c>
       <c r="D80" t="s">
+        <v>42</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" s="1">
+        <v>73456696</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>70</v>
+      </c>
+      <c r="C81" t="s">
+        <v>71</v>
+      </c>
+      <c r="D81" t="s">
+        <v>77</v>
+      </c>
+      <c r="E81" t="s">
+        <v>78</v>
+      </c>
+      <c r="F81" s="1">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>70</v>
+      </c>
+      <c r="C82" t="s">
+        <v>71</v>
+      </c>
+      <c r="D82" t="s">
+        <v>44</v>
+      </c>
+      <c r="E82" t="s">
+        <v>45</v>
+      </c>
+      <c r="F82" s="1">
+        <v>253410367.77</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>70</v>
+      </c>
+      <c r="C83" t="s">
+        <v>71</v>
+      </c>
+      <c r="D83" t="s">
+        <v>50</v>
+      </c>
+      <c r="E83" t="s">
+        <v>51</v>
+      </c>
+      <c r="F83" s="1">
+        <v>827530</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s">
+        <v>81</v>
+      </c>
+      <c r="B84" t="s">
+        <v>70</v>
+      </c>
+      <c r="C84" t="s">
+        <v>71</v>
+      </c>
+      <c r="D84" t="s">
+        <v>52</v>
+      </c>
+      <c r="E84" t="s">
+        <v>53</v>
+      </c>
+      <c r="F84" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>81</v>
+      </c>
+      <c r="B85" t="s">
+        <v>70</v>
+      </c>
+      <c r="C85" t="s">
+        <v>71</v>
+      </c>
+      <c r="D85" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="1">
+        <v>1521070</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>81</v>
+      </c>
+      <c r="B86" t="s">
+        <v>70</v>
+      </c>
+      <c r="C86" t="s">
+        <v>71</v>
+      </c>
+      <c r="D86" t="s">
+        <v>60</v>
+      </c>
+      <c r="E86" t="s">
+        <v>61</v>
+      </c>
+      <c r="F86" s="1">
+        <v>836416722.04</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>81</v>
+      </c>
+      <c r="B87" t="s">
+        <v>70</v>
+      </c>
+      <c r="C87" t="s">
+        <v>71</v>
+      </c>
+      <c r="D87" t="s">
         <v>66</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E87" t="s">
         <v>67</v>
       </c>
-      <c r="F80" s="1">
-        <v>1650000</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A81" t="s">
+      <c r="F87" s="1">
+        <v>126578469</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
         <v>82</v>
       </c>
-      <c r="B81" t="s">
-        <v>70</v>
-      </c>
-      <c r="C81" t="s">
-        <v>71</v>
-      </c>
-      <c r="D81" t="s">
+      <c r="B88" t="s">
+        <v>70</v>
+      </c>
+      <c r="C88" t="s">
+        <v>71</v>
+      </c>
+      <c r="D88" t="s">
         <v>36</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E88" t="s">
         <v>37</v>
       </c>
-      <c r="F81" s="1">
+      <c r="F88" s="1">
         <v>39387006667</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A82" t="s">
+    <row r="89">
+      <c r="A89" t="s">
         <v>82</v>
       </c>
-      <c r="B82" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" t="s">
-        <v>71</v>
-      </c>
-      <c r="D82" t="s">
+      <c r="B89" t="s">
+        <v>70</v>
+      </c>
+      <c r="C89" t="s">
+        <v>71</v>
+      </c>
+      <c r="D89" t="s">
         <v>52</v>
       </c>
-      <c r="E82" t="s">
+      <c r="E89" t="s">
         <v>53</v>
       </c>
-      <c r="F82" s="1">
-        <v>972525114749</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A83" t="s">
-        <v>83</v>
-      </c>
-      <c r="B83" t="s">
-        <v>84</v>
-      </c>
-      <c r="C83" t="s">
-        <v>85</v>
-      </c>
-      <c r="D83" t="s">
-        <v>18</v>
-      </c>
-      <c r="E83" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="1">
-        <v>7687895867</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A84" t="s">
-        <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>84</v>
-      </c>
-      <c r="C84" t="s">
-        <v>85</v>
-      </c>
-      <c r="D84" t="s">
-        <v>22</v>
-      </c>
-      <c r="E84" t="s">
-        <v>23</v>
-      </c>
-      <c r="F84" s="1">
-        <v>10403970574</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A85" t="s">
-        <v>83</v>
-      </c>
-      <c r="B85" t="s">
-        <v>84</v>
-      </c>
-      <c r="C85" t="s">
-        <v>85</v>
-      </c>
-      <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" t="s">
-        <v>25</v>
-      </c>
-      <c r="F85" s="1">
-        <v>2720032208</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A86" t="s">
-        <v>83</v>
-      </c>
-      <c r="B86" t="s">
-        <v>84</v>
-      </c>
-      <c r="C86" t="s">
-        <v>85</v>
-      </c>
-      <c r="D86" t="s">
-        <v>26</v>
-      </c>
-      <c r="E86" t="s">
-        <v>27</v>
-      </c>
-      <c r="F86" s="1">
-        <v>1746213166</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A87" t="s">
-        <v>83</v>
-      </c>
-      <c r="B87" t="s">
-        <v>84</v>
-      </c>
-      <c r="C87" t="s">
-        <v>85</v>
-      </c>
-      <c r="D87" t="s">
-        <v>28</v>
-      </c>
-      <c r="E87" t="s">
-        <v>29</v>
-      </c>
-      <c r="F87" s="1">
-        <v>913000000</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A88" t="s">
-        <v>83</v>
-      </c>
-      <c r="B88" t="s">
-        <v>84</v>
-      </c>
-      <c r="C88" t="s">
-        <v>85</v>
-      </c>
-      <c r="D88" t="s">
-        <v>30</v>
-      </c>
-      <c r="E88" t="s">
-        <v>31</v>
-      </c>
-      <c r="F88" s="1">
-        <v>232785912</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A89" t="s">
-        <v>83</v>
-      </c>
-      <c r="B89" t="s">
-        <v>84</v>
-      </c>
-      <c r="C89" t="s">
-        <v>85</v>
-      </c>
-      <c r="D89" t="s">
-        <v>32</v>
-      </c>
-      <c r="E89" t="s">
-        <v>33</v>
-      </c>
       <c r="F89" s="1">
-        <v>4777688</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.15">
+        <v>980642687456</v>
+      </c>
+    </row>
+    <row r="90">
       <c r="A90" t="s">
         <v>83</v>
       </c>
@@ -2337,16 +2000,16 @@
         <v>85</v>
       </c>
       <c r="D90" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="E90" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="F90" s="1">
-        <v>7985057273</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7687895867</v>
+      </c>
+    </row>
+    <row r="91">
       <c r="A91" t="s">
         <v>83</v>
       </c>
@@ -2357,16 +2020,16 @@
         <v>85</v>
       </c>
       <c r="D91" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="E91" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="F91" s="1">
-        <v>83920659015</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.15">
+        <v>7371129513</v>
+      </c>
+    </row>
+    <row r="92">
       <c r="A92" t="s">
         <v>83</v>
       </c>
@@ -2377,16 +2040,16 @@
         <v>85</v>
       </c>
       <c r="D92" t="s">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F92" s="1">
-        <v>21223731361</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2370032208</v>
+      </c>
+    </row>
+    <row r="93">
       <c r="A93" t="s">
         <v>83</v>
       </c>
@@ -2397,16 +2060,16 @@
         <v>85</v>
       </c>
       <c r="D93" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="E93" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F93" s="1">
-        <v>1009469060</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1746213166</v>
+      </c>
+    </row>
+    <row r="94">
       <c r="A94" t="s">
         <v>83</v>
       </c>
@@ -2417,16 +2080,16 @@
         <v>85</v>
       </c>
       <c r="D94" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="F94" s="1">
-        <v>403500000</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.15">
+        <v>913000000</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="s">
         <v>83</v>
       </c>
@@ -2437,156 +2100,156 @@
         <v>85</v>
       </c>
       <c r="D95" t="s">
+        <v>30</v>
+      </c>
+      <c r="E95" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="1">
+        <v>232785912</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="s">
+        <v>83</v>
+      </c>
+      <c r="B96" t="s">
+        <v>84</v>
+      </c>
+      <c r="C96" t="s">
+        <v>85</v>
+      </c>
+      <c r="D96" t="s">
+        <v>32</v>
+      </c>
+      <c r="E96" t="s">
+        <v>33</v>
+      </c>
+      <c r="F96" s="1">
+        <v>4541996</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="s">
+        <v>83</v>
+      </c>
+      <c r="B97" t="s">
+        <v>84</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" t="s">
+        <v>34</v>
+      </c>
+      <c r="E97" t="s">
+        <v>35</v>
+      </c>
+      <c r="F97" s="1">
+        <v>7980124083</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="s">
+        <v>83</v>
+      </c>
+      <c r="B98" t="s">
+        <v>84</v>
+      </c>
+      <c r="C98" t="s">
+        <v>85</v>
+      </c>
+      <c r="D98" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="1">
+        <v>82182275106</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="s">
+        <v>83</v>
+      </c>
+      <c r="B99" t="s">
+        <v>84</v>
+      </c>
+      <c r="C99" t="s">
+        <v>85</v>
+      </c>
+      <c r="D99" t="s">
+        <v>42</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" s="1">
+        <v>24223731361</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="s">
+        <v>83</v>
+      </c>
+      <c r="B100" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" t="s">
+        <v>85</v>
+      </c>
+      <c r="D100" t="s">
+        <v>50</v>
+      </c>
+      <c r="E100" t="s">
+        <v>51</v>
+      </c>
+      <c r="F100" s="1">
+        <v>1359469060</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="s">
+        <v>83</v>
+      </c>
+      <c r="B101" t="s">
+        <v>84</v>
+      </c>
+      <c r="C101" t="s">
+        <v>85</v>
+      </c>
+      <c r="D101" t="s">
+        <v>58</v>
+      </c>
+      <c r="E101" t="s">
+        <v>59</v>
+      </c>
+      <c r="F101" s="1">
+        <v>403500000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="s">
+        <v>83</v>
+      </c>
+      <c r="B102" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" t="s">
+        <v>85</v>
+      </c>
+      <c r="D102" t="s">
         <v>62</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E102" t="s">
         <v>63</v>
       </c>
-      <c r="F95" s="1">
-        <v>30615331399</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A96" t="s">
-        <v>83</v>
-      </c>
-      <c r="B96" t="s">
-        <v>86</v>
-      </c>
-      <c r="C96" t="s">
-        <v>87</v>
-      </c>
-      <c r="D96" t="s">
-        <v>16</v>
-      </c>
-      <c r="E96" t="s">
-        <v>17</v>
-      </c>
-      <c r="F96" s="1">
-        <v>738929625</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A97" t="s">
-        <v>83</v>
-      </c>
-      <c r="B97" t="s">
-        <v>86</v>
-      </c>
-      <c r="C97" t="s">
-        <v>87</v>
-      </c>
-      <c r="D97" t="s">
-        <v>18</v>
-      </c>
-      <c r="E97" t="s">
-        <v>19</v>
-      </c>
-      <c r="F97" s="1">
-        <v>253559545</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A98" t="s">
-        <v>83</v>
-      </c>
-      <c r="B98" t="s">
-        <v>86</v>
-      </c>
-      <c r="C98" t="s">
-        <v>87</v>
-      </c>
-      <c r="D98" t="s">
-        <v>20</v>
-      </c>
-      <c r="E98" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" s="1">
-        <v>380082966</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A99" t="s">
-        <v>83</v>
-      </c>
-      <c r="B99" t="s">
-        <v>86</v>
-      </c>
-      <c r="C99" t="s">
-        <v>87</v>
-      </c>
-      <c r="D99" t="s">
-        <v>22</v>
-      </c>
-      <c r="E99" t="s">
-        <v>23</v>
-      </c>
-      <c r="F99" s="1">
-        <v>3367582885</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A100" t="s">
-        <v>83</v>
-      </c>
-      <c r="B100" t="s">
-        <v>86</v>
-      </c>
-      <c r="C100" t="s">
-        <v>87</v>
-      </c>
-      <c r="D100" t="s">
-        <v>24</v>
-      </c>
-      <c r="E100" t="s">
-        <v>25</v>
-      </c>
-      <c r="F100" s="1">
-        <v>90319727</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A101" t="s">
-        <v>83</v>
-      </c>
-      <c r="B101" t="s">
-        <v>86</v>
-      </c>
-      <c r="C101" t="s">
-        <v>87</v>
-      </c>
-      <c r="D101" t="s">
-        <v>26</v>
-      </c>
-      <c r="E101" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="1">
-        <v>257236265</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B102" t="s">
-        <v>86</v>
-      </c>
-      <c r="C102" t="s">
-        <v>87</v>
-      </c>
-      <c r="D102" t="s">
-        <v>28</v>
-      </c>
-      <c r="E102" t="s">
-        <v>29</v>
-      </c>
       <c r="F102" s="1">
-        <v>309205810</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.15">
+        <v>31191328182</v>
+      </c>
+    </row>
+    <row r="103">
       <c r="A103" t="s">
         <v>83</v>
       </c>
@@ -2597,16 +2260,16 @@
         <v>87</v>
       </c>
       <c r="D103" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="E103" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="F103" s="1">
-        <v>8352392226</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.15">
+        <v>873626386</v>
+      </c>
+    </row>
+    <row r="104">
       <c r="A104" t="s">
         <v>83</v>
       </c>
@@ -2617,16 +2280,16 @@
         <v>87</v>
       </c>
       <c r="D104" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
       <c r="E104" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="F104" s="1">
-        <v>92000000</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2627708514</v>
+      </c>
+    </row>
+    <row r="105">
       <c r="A105" t="s">
         <v>83</v>
       </c>
@@ -2637,16 +2300,16 @@
         <v>87</v>
       </c>
       <c r="D105" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E105" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F105" s="1">
-        <v>525025711</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.15">
+        <v>452449693</v>
+      </c>
+    </row>
+    <row r="106">
       <c r="A106" t="s">
         <v>83</v>
       </c>
@@ -2657,16 +2320,16 @@
         <v>87</v>
       </c>
       <c r="D106" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E106" t="s">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="F106" s="1">
-        <v>7779376137</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.15">
+        <v>2496972915</v>
+      </c>
+    </row>
+    <row r="107">
       <c r="A107" t="s">
         <v>83</v>
       </c>
@@ -2677,16 +2340,16 @@
         <v>87</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>37</v>
+        <v>25</v>
       </c>
       <c r="F107" s="1">
-        <v>2287180236</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1336987816</v>
+      </c>
+    </row>
+    <row r="108">
       <c r="A108" t="s">
         <v>83</v>
       </c>
@@ -2697,16 +2360,16 @@
         <v>87</v>
       </c>
       <c r="D108" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="F108" s="1">
-        <v>30950980</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.15">
+        <v>263213265</v>
+      </c>
+    </row>
+    <row r="109">
       <c r="A109" t="s">
         <v>83</v>
       </c>
@@ -2717,16 +2380,16 @@
         <v>87</v>
       </c>
       <c r="D109" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="F109" s="1">
-        <v>105224097</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.15">
+        <v>297502439</v>
+      </c>
+    </row>
+    <row r="110">
       <c r="A110" t="s">
         <v>83</v>
       </c>
@@ -2737,16 +2400,16 @@
         <v>87</v>
       </c>
       <c r="D110" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="E110" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F110" s="1">
-        <v>2043297254</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8247261330</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" t="s">
         <v>83</v>
       </c>
@@ -2757,16 +2420,16 @@
         <v>87</v>
       </c>
       <c r="D111" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E111" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F111" s="1">
-        <v>803057832</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1378325499</v>
+      </c>
+    </row>
+    <row r="112">
       <c r="A112" t="s">
         <v>83</v>
       </c>
@@ -2777,16 +2440,16 @@
         <v>87</v>
       </c>
       <c r="D112" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="E112" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="F112" s="1">
-        <v>60997055</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.15">
+        <v>478057298</v>
+      </c>
+    </row>
+    <row r="113">
       <c r="A113" t="s">
         <v>83</v>
       </c>
@@ -2797,16 +2460,16 @@
         <v>87</v>
       </c>
       <c r="D113" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E113" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="F113" s="1">
-        <v>896821513</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8732222796</v>
+      </c>
+    </row>
+    <row r="114">
       <c r="A114" t="s">
         <v>83</v>
       </c>
@@ -2817,16 +2480,16 @@
         <v>87</v>
       </c>
       <c r="D114" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E114" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="F114" s="1">
-        <v>453658220</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.15">
+        <v>8196756698</v>
+      </c>
+    </row>
+    <row r="115">
       <c r="A115" t="s">
         <v>83</v>
       </c>
@@ -2837,16 +2500,16 @@
         <v>87</v>
       </c>
       <c r="D115" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="E115" t="s">
-        <v>51</v>
+        <v>39</v>
       </c>
       <c r="F115" s="1">
-        <v>144165480</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.15">
+        <v>30122711</v>
+      </c>
+    </row>
+    <row r="116">
       <c r="A116" t="s">
         <v>83</v>
       </c>
@@ -2857,16 +2520,16 @@
         <v>87</v>
       </c>
       <c r="D116" t="s">
-        <v>52</v>
+        <v>40</v>
       </c>
       <c r="E116" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="F116" s="1">
-        <v>43496905</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.15">
+        <v>109022456</v>
+      </c>
+    </row>
+    <row r="117">
       <c r="A117" t="s">
         <v>83</v>
       </c>
@@ -2877,16 +2540,16 @@
         <v>87</v>
       </c>
       <c r="D117" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="E117" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="F117" s="1">
-        <v>38454041</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.15">
+        <v>1604392549</v>
+      </c>
+    </row>
+    <row r="118">
       <c r="A118" t="s">
         <v>83</v>
       </c>
@@ -2897,16 +2560,16 @@
         <v>87</v>
       </c>
       <c r="D118" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
       <c r="E118" t="s">
-        <v>57</v>
+        <v>78</v>
       </c>
       <c r="F118" s="1">
-        <v>4477390684</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.15">
+        <v>744583456</v>
+      </c>
+    </row>
+    <row r="119">
       <c r="A119" t="s">
         <v>83</v>
       </c>
@@ -2917,16 +2580,16 @@
         <v>87</v>
       </c>
       <c r="D119" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="F119" s="1">
-        <v>1891206592</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.15">
+        <v>61353737</v>
+      </c>
+    </row>
+    <row r="120">
       <c r="A120" t="s">
         <v>83</v>
       </c>
@@ -2937,16 +2600,16 @@
         <v>87</v>
       </c>
       <c r="D120" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E120" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="F120" s="1">
-        <v>10698625988</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.15">
+        <v>896821513</v>
+      </c>
+    </row>
+    <row r="121">
       <c r="A121" t="s">
         <v>83</v>
       </c>
@@ -2957,16 +2620,16 @@
         <v>87</v>
       </c>
       <c r="D121" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E121" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="F121" s="1">
-        <v>1830457466</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.15">
+        <v>453658220</v>
+      </c>
+    </row>
+    <row r="122">
       <c r="A122" t="s">
         <v>83</v>
       </c>
@@ -2977,16 +2640,16 @@
         <v>87</v>
       </c>
       <c r="D122" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E122" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="F122" s="1">
-        <v>33011738</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.15">
+        <v>194239383</v>
+      </c>
+    </row>
+    <row r="123">
       <c r="A123" t="s">
         <v>83</v>
       </c>
@@ -2997,16 +2660,16 @@
         <v>87</v>
       </c>
       <c r="D123" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E123" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="F123" s="1">
-        <v>13964518947</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.15">
+        <v>43950261</v>
+      </c>
+    </row>
+    <row r="124">
       <c r="A124" t="s">
         <v>83</v>
       </c>
@@ -3017,73 +2680,193 @@
         <v>87</v>
       </c>
       <c r="D124" t="s">
+        <v>54</v>
+      </c>
+      <c r="E124" t="s">
+        <v>55</v>
+      </c>
+      <c r="F124" s="1">
+        <v>37227947</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="s">
+        <v>83</v>
+      </c>
+      <c r="B125" t="s">
+        <v>86</v>
+      </c>
+      <c r="C125" t="s">
+        <v>87</v>
+      </c>
+      <c r="D125" t="s">
+        <v>79</v>
+      </c>
+      <c r="E125" t="s">
+        <v>80</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1711379290</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="s">
+        <v>83</v>
+      </c>
+      <c r="B126" t="s">
+        <v>86</v>
+      </c>
+      <c r="C126" t="s">
+        <v>87</v>
+      </c>
+      <c r="D126" t="s">
+        <v>58</v>
+      </c>
+      <c r="E126" t="s">
+        <v>59</v>
+      </c>
+      <c r="F126" s="1">
+        <v>15197508739</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B127" t="s">
+        <v>86</v>
+      </c>
+      <c r="C127" t="s">
+        <v>87</v>
+      </c>
+      <c r="D127" t="s">
+        <v>60</v>
+      </c>
+      <c r="E127" t="s">
+        <v>61</v>
+      </c>
+      <c r="F127" s="1">
+        <v>2335613341</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="s">
+        <v>83</v>
+      </c>
+      <c r="B128" t="s">
+        <v>86</v>
+      </c>
+      <c r="C128" t="s">
+        <v>87</v>
+      </c>
+      <c r="D128" t="s">
+        <v>62</v>
+      </c>
+      <c r="E128" t="s">
+        <v>63</v>
+      </c>
+      <c r="F128" s="1">
+        <v>41108618</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="s">
+        <v>83</v>
+      </c>
+      <c r="B129" t="s">
+        <v>86</v>
+      </c>
+      <c r="C129" t="s">
+        <v>87</v>
+      </c>
+      <c r="D129" t="s">
+        <v>64</v>
+      </c>
+      <c r="E129" t="s">
+        <v>65</v>
+      </c>
+      <c r="F129" s="1">
+        <v>13197783229</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="s">
+        <v>83</v>
+      </c>
+      <c r="B130" t="s">
+        <v>86</v>
+      </c>
+      <c r="C130" t="s">
+        <v>87</v>
+      </c>
+      <c r="D130" t="s">
         <v>66</v>
       </c>
-      <c r="E124" t="s">
+      <c r="E130" t="s">
         <v>67</v>
       </c>
-      <c r="F124" s="1">
-        <v>1651493238</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A125" t="s">
+      <c r="F130" s="1">
+        <v>8243732090</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="s">
         <v>88</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B131" t="s">
         <v>89</v>
       </c>
-      <c r="C125" t="s">
+      <c r="C131" t="s">
         <v>90</v>
       </c>
-      <c r="D125" t="s">
+      <c r="D131" t="s">
         <v>36</v>
       </c>
-      <c r="E125" t="s">
+      <c r="E131" t="s">
         <v>37</v>
       </c>
-      <c r="F125" s="1">
+      <c r="F131" s="1">
         <v>480013131390</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A126" t="s">
+    <row r="132">
+      <c r="A132" t="s">
         <v>91</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B132" t="s">
         <v>92</v>
       </c>
-      <c r="C126" t="s">
+      <c r="C132" t="s">
         <v>93</v>
       </c>
-      <c r="D126" t="s">
+      <c r="D132" t="s">
         <v>36</v>
       </c>
-      <c r="E126" t="s">
+      <c r="E132" t="s">
         <v>37</v>
       </c>
-      <c r="F126" s="1">
+      <c r="F132" s="1">
         <v>2048943818864</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A127" t="s">
+    <row r="133">
+      <c r="A133" t="s">
         <v>94</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B133" t="s">
         <v>95</v>
       </c>
-      <c r="C127" t="s">
+      <c r="C133" t="s">
         <v>57</v>
       </c>
-      <c r="D127" t="s">
+      <c r="D133" t="s">
         <v>56</v>
       </c>
-      <c r="E127" t="s">
+      <c r="E133" t="s">
         <v>57</v>
       </c>
-      <c r="F127" s="1">
-        <v>91256533560</v>
+      <c r="F133" s="1">
+        <v>67051548038</v>
       </c>
     </row>
   </sheetData>
@@ -3092,6 +2875,5 @@
     <mergeCell ref="A8:F8"/>
     <mergeCell ref="A9:F9"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>